--- a/6node/output_a.xlsx
+++ b/6node/output_a.xlsx
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>140.8977006596687</v>
+        <v>484.490339110444</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>92.93736361085035</v>
+        <v>319.5740924162574</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -510,19 +510,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.8977006596687</v>
+        <v>484.490339110444</v>
       </c>
       <c r="C4" t="n">
-        <v>92.93736361085035</v>
+        <v>319.5740924162574</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>134.5737493367839</v>
+        <v>462.7448222808709</v>
       </c>
       <c r="F4" t="n">
-        <v>112.1937816208148</v>
+        <v>385.7891438189372</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>134.5737493367839</v>
+        <v>462.7448222808709</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>112.1937816208148</v>
+        <v>385.7891438189372</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
